--- a/biology/Botanique/Echium_lancerottense/Echium_lancerottense.xlsx
+++ b/biology/Botanique/Echium_lancerottense/Echium_lancerottense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echium lancerottense  est une plante de la famille des Boraginaceae, endémique de l'île de Lanzarote.
 Nom commun : Vipérine de Lanzarote
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Echium pitardii A. Chev.
 Echium lancerottense a été rattaché à Echium pitardii en 1971. 
@@ -544,10 +558,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée, basse, annuelle;
-Les feuilles basales sont ovales et densément velues[1].
+Les feuilles basales sont ovales et densément velues.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Echium lancerottense est endémique à Lanzarotte[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Echium lancerottense est endémique à Lanzarotte.
 </t>
         </is>
       </c>
